--- a/precomputed_assembly_stats/all_assemblies_pre_computed.xlsx
+++ b/precomputed_assembly_stats/all_assemblies_pre_computed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjt6\Documents\genome_assembly_workshop\precomputed_assembly_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8227DD-6B7F-488B-AE38-68DB4809A41C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF45FCB-63C1-4BBE-A15C-5243369947B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="10920" xr2:uid="{1F011602-E409-45FB-A761-6F577F5D18B7}"/>
+    <workbookView xWindow="1575" yWindow="1110" windowWidth="25815" windowHeight="12855" xr2:uid="{1F011602-E409-45FB-A761-6F577F5D18B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,12 +216,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -236,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -244,6 +250,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -563,17 +575,19 @@
   <dimension ref="A1:AP13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19" style="6" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="4" customWidth="1"/>
-    <col min="6" max="42" width="9.140625" style="4"/>
+    <col min="6" max="19" width="9.140625" style="4"/>
+    <col min="20" max="20" width="9.140625" style="6"/>
+    <col min="21" max="42" width="9.140625" style="4"/>
     <col min="43" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -584,7 +598,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -635,7 +649,7 @@
       <c r="S1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="5" t="s">
         <v>26</v>
       </c>
       <c r="U1" s="3" t="s">
@@ -712,7 +726,7 @@
       <c r="B2" s="4">
         <v>1039253</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="6">
         <v>1037864</v>
       </c>
       <c r="D2" s="4">
@@ -763,7 +777,7 @@
       <c r="S2" s="4">
         <v>714</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="6">
         <v>1551</v>
       </c>
       <c r="U2" s="4">
@@ -845,7 +859,7 @@
       <c r="B4" s="4">
         <v>26</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <v>2</v>
       </c>
       <c r="D4" s="4">
@@ -896,7 +910,7 @@
       <c r="S4" s="4">
         <v>22650</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="6">
         <v>3053</v>
       </c>
       <c r="U4" s="4">
@@ -973,7 +987,7 @@
       <c r="B5" s="4">
         <v>1060039</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <v>1045363</v>
       </c>
       <c r="D5" s="4">
@@ -1024,7 +1038,7 @@
       <c r="S5" s="4">
         <v>5747219</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="6">
         <v>918576</v>
       </c>
       <c r="U5" s="4">
@@ -1101,7 +1115,7 @@
       <c r="B6" s="4">
         <v>1039253</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="6">
         <v>1037864</v>
       </c>
       <c r="D6" s="4">
@@ -1152,7 +1166,7 @@
       <c r="S6" s="4">
         <v>253</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="6">
         <v>289</v>
       </c>
       <c r="U6" s="4">
@@ -1229,7 +1243,7 @@
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="4">
@@ -1280,7 +1294,7 @@
       <c r="S7" s="4">
         <v>11292</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="6">
         <v>1060</v>
       </c>
       <c r="U7" s="4">
@@ -1357,7 +1371,7 @@
       <c r="B8" s="4">
         <v>0.41299999999999998</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="6">
         <v>0.41299999999999998</v>
       </c>
       <c r="D8" s="4">
@@ -1408,7 +1422,7 @@
       <c r="S8" s="4">
         <v>0.41</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="6">
         <v>0.41599999999999998</v>
       </c>
       <c r="U8" s="4">
@@ -1490,7 +1504,7 @@
       <c r="B11" s="4">
         <v>2</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="6">
         <v>0</v>
       </c>
       <c r="D11" s="4">
@@ -1541,7 +1555,7 @@
       <c r="S11" s="4">
         <v>0</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="6">
         <v>0</v>
       </c>
       <c r="U11" s="4">
@@ -1618,7 +1632,7 @@
       <c r="B12" s="4">
         <v>200</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="6">
         <v>0</v>
       </c>
       <c r="D12" s="4">
@@ -1669,7 +1683,7 @@
       <c r="S12" s="4">
         <v>0</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="6">
         <v>0</v>
       </c>
       <c r="U12" s="4">
@@ -1746,7 +1760,7 @@
       <c r="B13" s="4">
         <v>100</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="6">
         <v>0</v>
       </c>
       <c r="D13" s="4">
@@ -1797,7 +1811,7 @@
       <c r="S13" s="4">
         <v>0</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="6">
         <v>0</v>
       </c>
       <c r="U13" s="4">
